--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_架构组.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_架构组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t>架构组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月21日17:04:12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +914,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,10 +1027,18 @@
       <c r="K2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>

--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_架构组.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_架构组.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
@@ -146,10 +142,6 @@
     <t>项目经理</t>
   </si>
   <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>支付实时稽核系统排除聚有财的判断</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -185,12 +177,16 @@
     <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -276,6 +272,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -914,7 +917,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
@@ -1022,22 +1025,22 @@
       <c r="H2" s="19"/>
       <c r="I2" s="18"/>
       <c r="J2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
